--- a/modelos/OBAGRA4451184/OBAGRA4451184_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4451184/OBAGRA4451184_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,13 @@
         <v>45024</v>
       </c>
       <c r="B2" t="n">
-        <v>28.04535720226054</v>
+        <v>26.73071394334469</v>
       </c>
       <c r="C2" t="n">
-        <v>10.66242533643497</v>
+        <v>9.519687987655921</v>
       </c>
       <c r="D2" t="n">
-        <v>44.0607374061379</v>
+        <v>44.19982462526848</v>
       </c>
       <c r="E2" t="n">
         <v>49</v>
@@ -496,13 +496,13 @@
         <v>45027</v>
       </c>
       <c r="B3" t="n">
-        <v>43.27178862265463</v>
+        <v>42.08356219359185</v>
       </c>
       <c r="C3" t="n">
-        <v>27.35651172034738</v>
+        <v>24.07078166886465</v>
       </c>
       <c r="D3" t="n">
-        <v>60.25607550340303</v>
+        <v>60.05405148320528</v>
       </c>
       <c r="E3" t="n">
         <v>85</v>
@@ -516,13 +516,13 @@
         <v>45040</v>
       </c>
       <c r="B4" t="n">
-        <v>47.08931524585564</v>
+        <v>45.12510533638856</v>
       </c>
       <c r="C4" t="n">
-        <v>29.30137325114528</v>
+        <v>28.2981678138</v>
       </c>
       <c r="D4" t="n">
-        <v>64.98404606305526</v>
+        <v>64.58581672835894</v>
       </c>
       <c r="E4" t="n">
         <v>40</v>
@@ -533,41 +533,21 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45047</v>
+        <v>45063</v>
       </c>
       <c r="B5" t="n">
-        <v>45.60598010267236</v>
+        <v>46.30813705750742</v>
       </c>
       <c r="C5" t="n">
-        <v>26.85302308489024</v>
+        <v>29.58710255519705</v>
       </c>
       <c r="D5" t="n">
-        <v>62.707012847111</v>
+        <v>64.79300817886437</v>
       </c>
       <c r="E5" t="n">
-        <v>100</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45040</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45063</v>
-      </c>
-      <c r="B6" t="n">
-        <v>52.78262796195057</v>
-      </c>
-      <c r="C6" t="n">
-        <v>34.85600167568359</v>
-      </c>
-      <c r="D6" t="n">
-        <v>71.07205743737894</v>
-      </c>
-      <c r="E6" t="n">
-        <v>34</v>
-      </c>
-      <c r="F6" s="2" t="n">
         <v>45056</v>
       </c>
     </row>
@@ -637,22 +617,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1741.243624752416</v>
+        <v>1841.820633991299</v>
       </c>
       <c r="C2" t="n">
-        <v>41.72821137734537</v>
+        <v>42.91643780640815</v>
       </c>
       <c r="D2" t="n">
-        <v>41.72821137734537</v>
+        <v>42.91643780640815</v>
       </c>
       <c r="E2" t="n">
-        <v>0.490920133851122</v>
+        <v>0.5048992683106842</v>
       </c>
       <c r="F2" t="n">
-        <v>0.490920133851122</v>
+        <v>0.5048992683106842</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6506218058609899</v>
+        <v>0.6754050180153387</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -663,22 +643,22 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>439.0970547808543</v>
+        <v>495.9211014731426</v>
       </c>
       <c r="C3" t="n">
-        <v>20.95464279773946</v>
+        <v>22.26928605665531</v>
       </c>
       <c r="D3" t="n">
-        <v>20.95464279773946</v>
+        <v>22.26928605665531</v>
       </c>
       <c r="E3" t="n">
-        <v>0.427645771382438</v>
+        <v>0.4544752256460268</v>
       </c>
       <c r="F3" t="n">
-        <v>0.427645771382438</v>
+        <v>0.4544752256460268</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5439560165248905</v>
+        <v>0.5881176842810516</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -689,25 +669,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>1120.584968134348</v>
+        <v>88.87847126773289</v>
       </c>
       <c r="C4" t="n">
-        <v>33.4751395536202</v>
+        <v>9.427537921840086</v>
       </c>
       <c r="D4" t="n">
-        <v>26.75532103504462</v>
+        <v>8.716621196947987</v>
       </c>
       <c r="E4" t="n">
-        <v>0.424534438098228</v>
+        <v>0.2450658322564366</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5439401989732764</v>
+        <v>0.2450658322564366</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4476038739303833</v>
+        <v>0.2134681372400569</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3333333333333334</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/modelos/OBAGRA4451184/OBAGRA4451184_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4451184/OBAGRA4451184_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,81 +473,101 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45024</v>
+        <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>26.73071394334469</v>
+        <v>33.25124833073114</v>
       </c>
       <c r="C2" t="n">
-        <v>9.519687987655921</v>
+        <v>16.9341101898649</v>
       </c>
       <c r="D2" t="n">
-        <v>44.19982462526848</v>
+        <v>49.24341682247425</v>
       </c>
       <c r="E2" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45019</v>
+        <v>45012</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45027</v>
+        <v>45024</v>
       </c>
       <c r="B3" t="n">
-        <v>42.08356219359185</v>
+        <v>28.03489402946715</v>
       </c>
       <c r="C3" t="n">
-        <v>24.07078166886465</v>
+        <v>12.06119716923668</v>
       </c>
       <c r="D3" t="n">
-        <v>60.05405148320528</v>
+        <v>44.11719011064137</v>
       </c>
       <c r="E3" t="n">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45026</v>
+        <v>45019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45040</v>
+        <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>45.12510533638856</v>
+        <v>43.34023077831186</v>
       </c>
       <c r="C4" t="n">
-        <v>28.2981678138</v>
+        <v>26.38243239501836</v>
       </c>
       <c r="D4" t="n">
-        <v>64.58581672835894</v>
+        <v>59.32710505993718</v>
       </c>
       <c r="E4" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45033</v>
+        <v>45026</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="B5" t="n">
+        <v>47.21350455911762</v>
+      </c>
+      <c r="C5" t="n">
+        <v>29.91513132785227</v>
+      </c>
+      <c r="D5" t="n">
+        <v>65.58258349888871</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="B5" t="n">
-        <v>46.30813705750742</v>
-      </c>
-      <c r="C5" t="n">
-        <v>29.58710255519705</v>
-      </c>
-      <c r="D5" t="n">
-        <v>64.79300817886437</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="B6" t="n">
+        <v>48.29180246254738</v>
+      </c>
+      <c r="C6" t="n">
+        <v>29.631771455516</v>
+      </c>
+      <c r="D6" t="n">
+        <v>65.05820536349246</v>
+      </c>
+      <c r="E6" t="n">
         <v>34</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F6" s="2" t="n">
         <v>45056</v>
       </c>
     </row>
@@ -617,22 +637,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1841.820633991299</v>
+        <v>1735.536371604315</v>
       </c>
       <c r="C2" t="n">
-        <v>42.91643780640815</v>
+        <v>41.65976922168814</v>
       </c>
       <c r="D2" t="n">
-        <v>42.91643780640815</v>
+        <v>41.65976922168814</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5048992683106842</v>
+        <v>0.4901149320198605</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5048992683106842</v>
+        <v>0.4901149320198605</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6754050180153387</v>
+        <v>0.6492082641435956</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -643,22 +663,22 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>495.9211014731426</v>
+        <v>424.8243636543064</v>
       </c>
       <c r="C3" t="n">
-        <v>22.26928605665531</v>
+        <v>20.61126788080506</v>
       </c>
       <c r="D3" t="n">
-        <v>22.26928605665531</v>
+        <v>20.608177150632</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4544752256460268</v>
+        <v>0.9928238193271215</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4544752256460268</v>
+        <v>0.9928238193271215</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5881176842810516</v>
+        <v>0.7100037838720218</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -669,22 +689,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>88.87847126773289</v>
+        <v>128.145132826443</v>
       </c>
       <c r="C4" t="n">
-        <v>9.427537921840086</v>
+        <v>11.3201207072382</v>
       </c>
       <c r="D4" t="n">
-        <v>8.716621196947987</v>
+        <v>10.7526535108325</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2450658322564366</v>
+        <v>0.300342372614667</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2450658322564366</v>
+        <v>0.300342372614667</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2134681372400569</v>
+        <v>0.2563831164678619</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>

--- a/modelos/OBAGRA4451184/OBAGRA4451184_Sell Out_metricas.xlsx
+++ b/modelos/OBAGRA4451184/OBAGRA4451184_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,13 @@
         <v>45017</v>
       </c>
       <c r="B2" t="n">
-        <v>33.25124833073114</v>
+        <v>31.58140401344224</v>
       </c>
       <c r="C2" t="n">
-        <v>16.9341101898649</v>
+        <v>16.68632683109088</v>
       </c>
       <c r="D2" t="n">
-        <v>49.24341682247425</v>
+        <v>46.63713629000297</v>
       </c>
       <c r="E2" t="n">
         <v>13</v>
@@ -496,13 +496,13 @@
         <v>45024</v>
       </c>
       <c r="B3" t="n">
-        <v>28.03489402946715</v>
+        <v>26.70505811380682</v>
       </c>
       <c r="C3" t="n">
-        <v>12.06119716923668</v>
+        <v>11.7822095431782</v>
       </c>
       <c r="D3" t="n">
-        <v>44.11719011064137</v>
+        <v>42.90600420902145</v>
       </c>
       <c r="E3" t="n">
         <v>49</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>43.34023077831186</v>
+        <v>42.08255053458983</v>
       </c>
       <c r="C4" t="n">
-        <v>26.38243239501836</v>
+        <v>25.69464208945435</v>
       </c>
       <c r="D4" t="n">
-        <v>59.32710505993718</v>
+        <v>56.53780503265252</v>
       </c>
       <c r="E4" t="n">
         <v>85</v>
@@ -536,13 +536,13 @@
         <v>45040</v>
       </c>
       <c r="B5" t="n">
-        <v>47.21350455911762</v>
+        <v>45.42314562273668</v>
       </c>
       <c r="C5" t="n">
-        <v>29.91513132785227</v>
+        <v>25.97420396851814</v>
       </c>
       <c r="D5" t="n">
-        <v>65.58258349888871</v>
+        <v>63.98650706536291</v>
       </c>
       <c r="E5" t="n">
         <v>40</v>
@@ -553,21 +553,41 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B6" t="n">
+        <v>44.17195881521828</v>
+      </c>
+      <c r="C6" t="n">
+        <v>26.35722895109251</v>
+      </c>
+      <c r="D6" t="n">
+        <v>61.39411602758435</v>
+      </c>
+      <c r="E6" t="n">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>45040</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>45063</v>
       </c>
-      <c r="B6" t="n">
-        <v>48.29180246254738</v>
-      </c>
-      <c r="C6" t="n">
-        <v>29.631771455516</v>
-      </c>
-      <c r="D6" t="n">
-        <v>65.05820536349246</v>
-      </c>
-      <c r="E6" t="n">
+      <c r="B7" t="n">
+        <v>50.81508951721723</v>
+      </c>
+      <c r="C7" t="n">
+        <v>32.82704344203662</v>
+      </c>
+      <c r="D7" t="n">
+        <v>69.02767553509604</v>
+      </c>
+      <c r="E7" t="n">
         <v>34</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F7" s="2" t="n">
         <v>45056</v>
       </c>
     </row>
@@ -637,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1735.536371604315</v>
+        <v>1841.907468616036</v>
       </c>
       <c r="C2" t="n">
-        <v>41.65976922168814</v>
+        <v>42.91744946541017</v>
       </c>
       <c r="D2" t="n">
-        <v>41.65976922168814</v>
+        <v>42.91744946541017</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4901149320198605</v>
+        <v>0.5049111701812962</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4901149320198605</v>
+        <v>0.5049111701812962</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6492082641435956</v>
+        <v>0.6754263159634766</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -663,22 +683,22 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>424.8243636543064</v>
+        <v>421.1665044097492</v>
       </c>
       <c r="C3" t="n">
-        <v>20.61126788080506</v>
+        <v>20.52234159178112</v>
       </c>
       <c r="D3" t="n">
-        <v>20.608177150632</v>
+        <v>20.43817294981771</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9928238193271215</v>
+        <v>0.942168792134365</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9928238193271215</v>
+        <v>0.942168792134365</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7100037838720218</v>
+        <v>0.7112945802926685</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -689,25 +709,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>128.145132826443</v>
+        <v>1142.975975482374</v>
       </c>
       <c r="C4" t="n">
-        <v>11.3201207072382</v>
+        <v>33.80792770168521</v>
       </c>
       <c r="D4" t="n">
-        <v>10.7526535108325</v>
+        <v>26.02209210824521</v>
       </c>
       <c r="E4" t="n">
-        <v>0.300342372614667</v>
+        <v>0.3961401696016588</v>
       </c>
       <c r="F4" t="n">
-        <v>0.300342372614667</v>
+        <v>0.4945614563887421</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2563831164678619</v>
+        <v>0.4326492369518103</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0.6666666666666667</v>
       </c>
     </row>
   </sheetData>
